--- a/Progress Documentation.xlsx
+++ b/Progress Documentation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Architecture</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Adam</t>
   </si>
   <si>
-    <t>Baseline model</t>
-  </si>
-  <si>
     <t>Running Time</t>
   </si>
   <si>
@@ -64,6 +61,42 @@
   </si>
   <si>
     <t>3.9 hours</t>
+  </si>
+  <si>
+    <t>InceptionV3 + DF_non_DF</t>
+  </si>
+  <si>
+    <t>20 minutes</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Baseline model, No augmentations</t>
+  </si>
+  <si>
+    <t>Minority class experiment [FAIL]</t>
+  </si>
+  <si>
+    <t>InceptionV3 + minority classes (4)</t>
+  </si>
+  <si>
+    <t>Augmented each class to ~500 samples.</t>
+  </si>
+  <si>
+    <t>InceptionV3 + MEL, BKL, Others</t>
+  </si>
+  <si>
+    <t>No augmentations made</t>
+  </si>
+  <si>
+    <t>InceptionV3 + NV, Non NV</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>3 hours</t>
   </si>
 </sst>
 </file>
@@ -107,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,6 +154,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,10 +453,10 @@
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -451,13 +485,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -486,10 +520,115 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
+      <c r="B3" s="3">
+        <v>43291</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>88.5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43294</v>
+      </c>
+      <c r="C4">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43294</v>
+      </c>
+      <c r="C5">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <v>86.7</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43295</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
